--- a/docs/20140911_LogTime_T9.xlsx
+++ b/docs/20140911_LogTime_T9.xlsx
@@ -100,31 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ANLT LE THANH AN:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Chưa tính do chưa làm </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H29" authorId="1">
+    <comment ref="H31" authorId="1">
       <text>
         <r>
           <rPr>
@@ -154,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>ANLT</t>
   </si>
@@ -201,28 +177,33 @@
     <t>TUẦN 4</t>
   </si>
   <si>
-    <t>Thời gian làm việc từ 01/06 đến 30/06</t>
-  </si>
-  <si>
     <t>VAN</t>
   </si>
   <si>
     <t>Lũy kế tháng 7</t>
   </si>
   <si>
+    <t>TUẦN 4 - tháng 8</t>
+  </si>
+  <si>
     <t>TUẦN 5</t>
+  </si>
+  <si>
+    <t>Thời gian làm việc từ 25/08 đến 30/09</t>
+  </si>
+  <si>
+    <t>TUẦN 4 - Tháng 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,17 +249,10 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,12 +262,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,11 +292,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -352,28 +319,24 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
@@ -394,6 +357,15 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -427,81 +399,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -556,6 +453,72 @@
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -570,16 +533,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E41" totalsRowCount="1" headerRowDxfId="14" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E41" totalsRowCount="1" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A3:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="SPRINT " dataDxfId="13"/>
-    <tableColumn id="2" name="Ngày " dataDxfId="12" totalsRowDxfId="7"/>
-    <tableColumn id="3" name="ANLT" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="6">
+    <tableColumn id="1" name="SPRINT " dataDxfId="23"/>
+    <tableColumn id="2" name="Ngày " dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" name="ANLT" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
       <totalsRowFormula>SUM(Table1[ANLT])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="VAN" dataDxfId="10" totalsRowDxfId="5"/>
-    <tableColumn id="5" name="ANHDT" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="4">
+    <tableColumn id="4" name="VAN" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" name="ANHDT" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="15">
       <totalsRowFormula>SUM(Table1[ANHDT])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -592,14 +555,14 @@
   <autoFilter ref="G17:K20"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ACCOUNT "/>
-    <tableColumn id="2" name="Lương " dataDxfId="25"/>
-    <tableColumn id="3" name="Trên Tháng " dataDxfId="24">
+    <tableColumn id="2" name="Lương " dataDxfId="14"/>
+    <tableColumn id="3" name="Trên Tháng " dataDxfId="13">
       <calculatedColumnFormula>(H18/2)*0.8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Trên Ngày " dataDxfId="23">
+    <tableColumn id="4" name="Trên Ngày " dataDxfId="12">
       <calculatedColumnFormula>I18/(31-5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Trên Giờ " dataDxfId="22">
+    <tableColumn id="5" name="Trên Giờ " dataDxfId="11">
       <calculatedColumnFormula>J18/4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -608,32 +571,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G3:J9" totalsRowShown="0">
-  <autoFilter ref="G3:J9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="G3:J10" totalsRowShown="0">
+  <autoFilter ref="G3:J10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Chia theo Tuần"/>
-    <tableColumn id="2" name="ANLT" dataDxfId="21"/>
-    <tableColumn id="3" name="VAN" dataDxfId="20"/>
-    <tableColumn id="4" name="ANHDT" dataDxfId="19"/>
+    <tableColumn id="2" name="ANLT" dataDxfId="10"/>
+    <tableColumn id="3" name="VAN" dataDxfId="9"/>
+    <tableColumn id="4" name="ANHDT" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G23:J30" totalsRowCount="1">
-  <autoFilter ref="G23:J29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G23:J32" totalsRowCount="1">
+  <autoFilter ref="G23:J31"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Giai đoạn" dataDxfId="18" totalsRowDxfId="3"/>
-    <tableColumn id="2" name="ANLT" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="2">
+    <tableColumn id="1" name="Giai đoạn" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="ANLT" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(#REF!&gt;=28,(#REF!-4)*$K$18,IF(#REF!&lt;=24,#REF! *$K$18,24*$K$18 ))</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table3[ANLT])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="ANHDT" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="1">
+    <tableColumn id="3" name="ANHDT" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(#REF!&gt;=28,(#REF!-4)*$K$19,IF(#REF!&lt;=24,#REF! *$K$19,24*$K$19 ))</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table3[ANHDT])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" name="VAN" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="4" name="VAN" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(I3&gt;=28,(I3-4)*$K$20,IF(I3&lt;=24,I3 *$K$20,24*$K$20 ))</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table3[VAN])</totalsRowFormula>
     </tableColumn>
@@ -897,7 +860,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -908,7 +871,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,23 +892,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L2" s="7"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
@@ -961,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -973,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>2</v>
@@ -983,27 +946,27 @@
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12">
         <v>41876</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11"/>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H4" s="9">
-        <f>SUM(C4:C6)</f>
-        <v>0</v>
+        <f>SUM(C4:C10)</f>
+        <v>8</v>
       </c>
       <c r="I4" s="9">
         <f>SUM(D4:D6)</f>
         <v>3</v>
       </c>
       <c r="J4" s="9">
-        <f>SUM(E4:E6)</f>
-        <v>0</v>
+        <f>SUM(E4:E10)</f>
+        <v>12</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1011,56 +974,58 @@
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12">
         <v>41877</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="11"/>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="10">
-        <f>SUM(C7:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <f>SUM(D7:D13)</f>
-        <v>9</v>
-      </c>
-      <c r="J5" s="8">
-        <f>SUM(E7:E13)</f>
-        <v>0</v>
+        <f>SUM(C11:C17)</f>
+        <v>28</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" ref="I5" si="0">SUM(D11:D17)</f>
+        <v>3.5</v>
+      </c>
+      <c r="J5" s="10">
+        <f>SUM(E11:E17)</f>
+        <v>6</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12">
         <v>41878</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13">
         <v>3</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="11">
+        <v>4</v>
+      </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="10">
-        <f>SUM(C14:C20)</f>
+        <f>SUM(C18:C24)</f>
+        <v>22</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" ref="I6:J6" si="1">SUM(D18:D24)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="8">
-        <f>SUM(D14:D20)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <f>SUM(E14:E20)</f>
-        <v>0</v>
+      <c r="J6" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -1070,29 +1035,29 @@
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12">
         <v>41879</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13">
         <v>1.5</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="11"/>
       <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10">
+        <f>SUM(C25:C31)</f>
+        <v>13</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" ref="I7:J7" si="2">SUM(D25:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="2"/>
         <v>14</v>
-      </c>
-      <c r="H7" s="10">
-        <f>SUM(C21:C27)</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <f>SUM(D21:D27)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <f>SUM(E21:E27)</f>
-        <v>0</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -1102,21 +1067,30 @@
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12">
         <v>41880</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13">
         <v>4</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="11"/>
       <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="H8" s="10">
+        <f>SUM(C32:C38)</f>
+        <v>26</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" ref="I8:J8" si="3">SUM(D32:D38)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
@@ -1125,20 +1099,26 @@
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12">
         <v>41881</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="11"/>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="10">
-        <f>SUM(H4:H7)-K4-M4</f>
+        <f>SUM(C39:C40)</f>
+        <v>8</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" ref="I9:J9" si="4">SUM(D39:D40)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8">
-        <f>SUM(J4:J7)-L4-N4</f>
+      <c r="J9" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L9" s="7"/>
@@ -1149,15 +1129,29 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12">
         <v>41882</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="14"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="C10" s="13">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11">
+        <v>8</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(H4:H9)-K4-M4</f>
+        <v>105</v>
+      </c>
+      <c r="I10" s="8">
+        <f>SUM(I4:I9)</f>
+        <v>6.5</v>
+      </c>
+      <c r="J10" s="8">
+        <f>SUM(J4:J7)-L4-N4</f>
+        <v>48</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -1166,81 +1160,89 @@
       <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
         <v>41883</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="18">
+        <v>4</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16">
+        <v>6</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17">
         <v>41884</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18">
         <v>1.5</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="16"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
         <v>41885</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24">
+      <c r="C13" s="18">
+        <v>4</v>
+      </c>
+      <c r="D13" s="18">
         <v>2</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="16"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17">
         <v>41886</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="16"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
         <v>41887</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="22"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17">
         <v>41888</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="22"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17">
         <v>41889</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="18">
+        <v>20</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="16"/>
       <c r="G17" t="s">
         <v>5</v>
       </c>
@@ -1276,11 +1278,11 @@
         <v>4400000</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" ref="J18:J19" si="0">I18/(31-5)</f>
+        <f t="shared" ref="J18:J19" si="5">I18/(31-5)</f>
         <v>169230.76923076922</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" ref="K18" si="1">J18/4</f>
+        <f t="shared" ref="K18" si="6">J18/4</f>
         <v>42307.692307692305</v>
       </c>
       <c r="M18" s="6"/>
@@ -1292,7 +1294,9 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11">
+        <v>4</v>
+      </c>
       <c r="G19" s="6" t="s">
         <v>2</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>2800000</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>107692.30769230769</v>
       </c>
       <c r="K19" s="6">
@@ -1321,7 +1325,7 @@
       <c r="D20" s="13"/>
       <c r="E20" s="11"/>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="6">
         <v>3000000</v>
@@ -1344,16 +1348,22 @@
       <c r="B21" s="12">
         <v>41893</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>4</v>
+      </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12">
         <v>41894</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13">
+        <v>2</v>
+      </c>
       <c r="D22" s="13"/>
       <c r="E22" s="11"/>
     </row>
@@ -1364,7 +1374,9 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11">
+        <v>8</v>
+      </c>
       <c r="G23" t="s">
         <v>9</v>
       </c>
@@ -1375,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1383,7 +1395,9 @@
       <c r="B24" s="12">
         <v>41896</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13">
+        <v>16</v>
+      </c>
       <c r="D24" s="13"/>
       <c r="E24" s="11"/>
       <c r="G24" s="3"/>
@@ -1391,148 +1405,174 @@
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17">
         <v>41897</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="11"/>
+      <c r="C25" s="18">
+        <v>3</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="16"/>
       <c r="G25" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H25" s="6">
         <f>IF(H4&gt;=28,(H4-4)*$K$18,IF(H4&lt;=24,H4 *$K$18,24*$K$18 ))</f>
-        <v>0</v>
+        <v>338461.53846153844</v>
       </c>
       <c r="I25" s="6">
         <f>IF(J4&gt;=28,(J4-4)*$K$19,IF(J4&lt;=24,J4 *$K$19,24*$K$19 ))</f>
-        <v>0</v>
+        <v>323076.92307692306</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" ref="J25:J29" si="2">IF(I4&gt;=28,(I4-4)*$K$20,IF(I4&lt;=24,I4 *$K$20,24*$K$20 ))</f>
+        <f>IF(I4&gt;=28,(I4-4)*$K$20,IF(I4&lt;=24,I4 *$K$20,24*$K$20 ))</f>
         <v>34615.384615384617</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17">
         <v>41898</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="11"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
       <c r="G26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="6">
         <f>IF(H5&gt;=28,(H5-4)*$K$18,IF(H5&lt;=24,H5 *$K$18,24*$K$18 ))</f>
-        <v>0</v>
+        <v>1015384.6153846153</v>
       </c>
       <c r="I26" s="6">
         <f>IF(J5&gt;=28,(J5-4)*$K$19,IF(J5&lt;=24,J5 *$K$19,24*$K$19 ))</f>
-        <v>0</v>
+        <v>161538.46153846153</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="2"/>
-        <v>103846.15384615384</v>
+        <f>IF(I5&gt;=28,(I5-4)*$K$20,IF(I5&lt;=24,I5 *$K$20,24*$K$20 ))</f>
+        <v>40384.61538461539</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17">
         <v>41899</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="11"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="16">
+        <v>1</v>
+      </c>
       <c r="G27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H27" s="6">
         <f>IF(H6&gt;=28,(H6-4)*$K$18,IF(H6&lt;=24,H6 *$K$18,24*$K$18 ))</f>
-        <v>0</v>
+        <v>930769.23076923075</v>
       </c>
       <c r="I27" s="6">
         <f>IF(J6&gt;=28,(J6-4)*$K$19,IF(J6&lt;=24,J6 *$K$19,24*$K$19 ))</f>
+        <v>430769.23076923075</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" ref="J27:J30" si="7">IF(I6&gt;=28,(I6-4)*$K$20,IF(I6&lt;=24,I6 *$K$20,24*$K$20 ))</f>
         <v>0</v>
       </c>
-      <c r="J27" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17">
         <v>41900</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="11"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="16"/>
       <c r="G28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" s="6">
         <f>IF(H7&gt;=28,(H7-4)*$K$18,IF(H7&lt;=24,H7 *$K$18,24*$K$18 ))</f>
-        <v>0</v>
+        <v>550000</v>
       </c>
       <c r="I28" s="6">
         <f>IF(J7&gt;=28,(J7-4)*$K$19,IF(J7&lt;=24,J7 *$K$19,24*$K$19 ))</f>
+        <v>376923.07692307688</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J28" s="6">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17">
+        <v>41901</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="16"/>
+      <c r="G29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" ref="H29:H30" si="8">IF(H8&gt;=28,(H8-4)*$K$18,IF(H8&lt;=24,H8 *$K$18,24*$K$18 ))</f>
+        <v>1015384.6153846153</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" ref="I29:I30" si="9">IF(J8&gt;=28,(J8-4)*$K$19,IF(J8&lt;=24,J8 *$K$19,24*$K$19 ))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12">
-        <v>41901</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="11"/>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="6"/>
       <c r="J29" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17">
+        <v>41902</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="16"/>
+      <c r="G30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="8"/>
+        <v>338461.53846153844</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17">
+        <v>41903</v>
+      </c>
+      <c r="C31" s="18">
+        <v>10</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="16">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6">
         <v>109615</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12">
-        <v>41902</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="11"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="6">
-        <f>SUM(Table3[ANLT])</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
-        <f>SUM(Table3[ANHDT])</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="19">
-        <f>SUM(Table3[VAN])</f>
-        <v>248076.53846153847</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12">
-        <v>41903</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="11"/>
-      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
@@ -1542,8 +1582,21 @@
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" s="15"/>
+      <c r="H32" s="6">
+        <f>SUM(Table3[ANLT])</f>
+        <v>4188461.5384615385</v>
+      </c>
+      <c r="I32" s="6">
+        <f>SUM(Table3[ANHDT])</f>
+        <v>1292307.6923076923</v>
+      </c>
+      <c r="J32" s="20">
+        <f>SUM(Table3[VAN])</f>
+        <v>184615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12">
         <v>41905</v>
@@ -1551,17 +1604,20 @@
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12">
         <v>41906</v>
       </c>
-      <c r="C34" s="13"/>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
       <c r="D34" s="13"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12">
         <v>41907</v>
@@ -1570,7 +1626,7 @@
       <c r="D35" s="13"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="12">
         <v>41908</v>
@@ -1579,51 +1635,57 @@
       <c r="D36" s="13"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="12">
         <v>41909</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="13">
+        <v>14</v>
+      </c>
       <c r="D37" s="13"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="12">
         <v>41910</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="13">
+        <v>8</v>
+      </c>
       <c r="D38" s="13"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17">
         <v>41911</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12">
+      <c r="C39" s="18">
+        <v>8</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17">
         <v>41912</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="5">
         <f>SUM(Table1[ANLT])</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E41" s="5">
         <f>SUM(Table1[ANHDT])</f>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
